--- a/чистый бланк/ЗАКАЗ КРЫМ 03,10,24ц-выезд 05,10.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 03,10,24ц-выезд 05,10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB7C056-2209-4784-82DB-8720D81265E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9423C82-E756-4E86-962C-89F049C3D044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$141</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="211">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>КРАКОВСКАЯ п/к н/о мгс_30с</t>
+  </si>
+  <si>
+    <t>ДЫМОВИЦА ИЗ ОКОРОКА к/в мл/к в/у 0.3кг</t>
   </si>
 </sst>
 </file>
@@ -1840,11 +1843,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1664"/>
+  <dimension ref="A1:M1665"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F159" sqref="F159"/>
+      <pane ySplit="9" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J143" sqref="J143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,7 +1992,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D139,4)</f>
+        <f>RIGHT(D11:D140,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2020,7 +2023,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D140,4)</f>
+        <f>RIGHT(D12:D141,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2045,7 +2048,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D140,4)</f>
+        <f>RIGHT(D13:D141,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2069,7 +2072,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D141,4)</f>
+        <f>RIGHT(D14:D142,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2093,7 +2096,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D142,4)</f>
+        <f>RIGHT(D15:D143,4)</f>
         <v>6247</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2117,7 +2120,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f t="shared" ref="A16:A23" si="0">RIGHT(D16:D142,4)</f>
+        <f>RIGHT(D16:D143,4)</f>
         <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2147,7 +2150,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D17:D144,4)</f>
         <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2173,7 +2176,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D18:D145,4)</f>
         <v>6839</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2199,7 +2202,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D19:D146,4)</f>
         <v>6426</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2223,7 +2226,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D20:D147,4)</f>
         <v>4063</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2253,7 +2256,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D21:D148,4)</f>
         <v>6333</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2283,7 +2286,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D22:D149,4)</f>
         <v>4574</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2313,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D23:D150,4)</f>
         <v>6861</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D153,4)</f>
+        <f>RIGHT(D24:D154,4)</f>
         <v>6862</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2367,7 +2370,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D153,4)</f>
+        <f>RIGHT(D25:D154,4)</f>
         <v>6341</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2391,7 +2394,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D154,4)</f>
+        <f>RIGHT(D26:D155,4)</f>
         <v>6747</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2421,7 +2424,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D157,4)</f>
+        <f>RIGHT(D27:D158,4)</f>
         <v>4813</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2451,7 +2454,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D158,4)</f>
+        <f>RIGHT(D28:D159,4)</f>
         <v>6392</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2481,7 +2484,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D159,4)</f>
+        <f>RIGHT(D29:D160,4)</f>
         <v>6801</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2507,7 +2510,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D160,4)</f>
+        <f>RIGHT(D30:D161,4)</f>
         <v>6802</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2531,7 +2534,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D160,4)</f>
+        <f>RIGHT(D31:D161,4)</f>
         <v>5851</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2561,7 +2564,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D161,4)</f>
+        <f>RIGHT(D32:D162,4)</f>
         <v>6158</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2589,7 +2592,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D163,4)</f>
+        <f>RIGHT(D33:D164,4)</f>
         <v>6340</v>
       </c>
       <c r="B33" s="96" t="s">
@@ -2617,7 +2620,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D161,4)</f>
+        <f>RIGHT(D34:D162,4)</f>
         <v>6353</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2647,7 +2650,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D162,4)</f>
+        <f>RIGHT(D35:D163,4)</f>
         <v/>
       </c>
       <c r="B35" s="74" t="s">
@@ -2664,7 +2667,7 @@
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D165,4)</f>
+        <f>RIGHT(D36:D166,4)</f>
         <v>6870</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2689,7 +2692,7 @@
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D166,4)</f>
+        <f>RIGHT(D37:D167,4)</f>
         <v>6869</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2714,7 +2717,7 @@
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D166,4)</f>
+        <f>RIGHT(D38:D167,4)</f>
         <v>6253</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2739,7 +2742,7 @@
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D165,4)</f>
+        <f>RIGHT(D39:D166,4)</f>
         <v>6602</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2764,7 +2767,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D168,4)</f>
+        <f>RIGHT(D40:D169,4)</f>
         <v>6768</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2789,7 +2792,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D169,4)</f>
+        <f>RIGHT(D41:D170,4)</f>
         <v>6770</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2814,7 +2817,7 @@
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D172,4)</f>
+        <f>RIGHT(D42:D173,4)</f>
         <v>6829</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2838,7 +2841,7 @@
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D177,4)</f>
+        <f>RIGHT(D43:D178,4)</f>
         <v>6854</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2862,7 +2865,7 @@
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D178,4)</f>
+        <f>RIGHT(D44:D179,4)</f>
         <v>6852</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -2886,7 +2889,7 @@
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D178,4)</f>
+        <f>RIGHT(D45:D179,4)</f>
         <v>6853</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -2910,7 +2913,7 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D179,4)</f>
+        <f>RIGHT(D46:D180,4)</f>
         <v>6759</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -2934,7 +2937,7 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D180,4)</f>
+        <f>RIGHT(D47:D181,4)</f>
         <v>6901</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -2960,7 +2963,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D179,4)</f>
+        <f>RIGHT(D48:D180,4)</f>
         <v>6303</v>
       </c>
       <c r="B48" s="70" t="s">
@@ -2991,7 +2994,7 @@
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D180,4)</f>
+        <f>RIGHT(D49:D181,4)</f>
         <v>6777</v>
       </c>
       <c r="B49" s="70" t="s">
@@ -3016,7 +3019,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D180,4)</f>
+        <f>RIGHT(D50:D181,4)</f>
         <v>6726</v>
       </c>
       <c r="B50" s="45" t="s">
@@ -3046,7 +3049,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D181,4)</f>
+        <f>RIGHT(D51:D182,4)</f>
         <v>6762</v>
       </c>
       <c r="B51" s="45" t="s">
@@ -3072,7 +3075,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D181,4)</f>
+        <f>RIGHT(D52:D182,4)</f>
         <v>5820</v>
       </c>
       <c r="B52" s="45" t="s">
@@ -3098,7 +3101,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D183,4)</f>
+        <f>RIGHT(D53:D184,4)</f>
         <v>6764</v>
       </c>
       <c r="B53" s="45" t="s">
@@ -3122,7 +3125,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D185,4)</f>
+        <f>RIGHT(D54:D186,4)</f>
         <v>6761</v>
       </c>
       <c r="B54" s="45" t="s">
@@ -3146,7 +3149,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D186,4)</f>
+        <f>RIGHT(D55:D187,4)</f>
         <v>6767</v>
       </c>
       <c r="B55" s="45" t="s">
@@ -3170,7 +3173,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D186,4)</f>
+        <f>RIGHT(D56:D187,4)</f>
         <v>6765</v>
       </c>
       <c r="B56" s="45" t="s">
@@ -3194,7 +3197,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D187,4)</f>
+        <f>RIGHT(D57:D188,4)</f>
         <v>6909</v>
       </c>
       <c r="B57" s="45" t="s">
@@ -3220,7 +3223,7 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D186,4)</f>
+        <f>RIGHT(D58:D187,4)</f>
         <v>6722</v>
       </c>
       <c r="B58" s="45" t="s">
@@ -3250,7 +3253,7 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D187,4)</f>
+        <f>RIGHT(D59:D188,4)</f>
         <v>6837</v>
       </c>
       <c r="B59" s="45" t="s">
@@ -3276,7 +3279,7 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D187,4)</f>
+        <f>RIGHT(D60:D188,4)</f>
         <v>3812</v>
       </c>
       <c r="B60" s="45" t="s">
@@ -3306,7 +3309,7 @@
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D188,4)</f>
+        <f>RIGHT(D61:D189,4)</f>
         <v>6113</v>
       </c>
       <c r="B61" s="27" t="s">
@@ -3337,7 +3340,7 @@
     </row>
     <row r="62" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D189,4)</f>
+        <f>RIGHT(D62:D190,4)</f>
         <v>6661</v>
       </c>
       <c r="B62" s="27" t="s">
@@ -3362,7 +3365,7 @@
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D190,4)</f>
+        <f>RIGHT(D63:D191,4)</f>
         <v>6713</v>
       </c>
       <c r="B63" s="27" t="s">
@@ -3387,7 +3390,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D186,4)</f>
+        <f>RIGHT(D64:D187,4)</f>
         <v/>
       </c>
       <c r="B64" s="74" t="s">
@@ -3404,7 +3407,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D187,4)</f>
+        <f>RIGHT(D65:D188,4)</f>
         <v>5698</v>
       </c>
       <c r="B65" s="46" t="s">
@@ -3434,7 +3437,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D190,4)</f>
+        <f>RIGHT(D66:D191,4)</f>
         <v>6528</v>
       </c>
       <c r="B66" s="46" t="s">
@@ -3458,7 +3461,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D192,4)</f>
+        <f>RIGHT(D67:D193,4)</f>
         <v>6527</v>
       </c>
       <c r="B67" s="46" t="s">
@@ -3488,7 +3491,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D193,4)</f>
+        <f>RIGHT(D68:D194,4)</f>
         <v/>
       </c>
       <c r="B68" s="74" t="s">
@@ -3505,7 +3508,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D194,4)</f>
+        <f>RIGHT(D69:D195,4)</f>
         <v>6666</v>
       </c>
       <c r="B69" s="27" t="s">
@@ -3535,7 +3538,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D195,4)</f>
+        <f>RIGHT(D70:D196,4)</f>
         <v>6785</v>
       </c>
       <c r="B70" s="27" t="s">
@@ -3559,7 +3562,7 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
-        <f>RIGHT(D71:D196,4)</f>
+        <f>RIGHT(D71:D197,4)</f>
         <v>6415</v>
       </c>
       <c r="B71" s="27" t="s">
@@ -3585,7 +3588,7 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D196,4)</f>
+        <f>RIGHT(D72:D197,4)</f>
         <v>6786</v>
       </c>
       <c r="B72" s="27" t="s">
@@ -3609,7 +3612,7 @@
     </row>
     <row r="73" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D197,4)</f>
+        <f>RIGHT(D73:D198,4)</f>
         <v>4903</v>
       </c>
       <c r="B73" s="27" t="s">
@@ -3634,7 +3637,7 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D197,4)</f>
+        <f>RIGHT(D74:D198,4)</f>
         <v>6794</v>
       </c>
       <c r="B74" s="27" t="s">
@@ -3660,7 +3663,7 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D195,4)</f>
+        <f>RIGHT(D75:D196,4)</f>
         <v>6773</v>
       </c>
       <c r="B75" s="27" t="s">
@@ -3690,7 +3693,7 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D198,4)</f>
+        <f>RIGHT(D76:D199,4)</f>
         <v/>
       </c>
       <c r="B76" s="74" t="s">
@@ -3707,7 +3710,7 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D199,4)</f>
+        <f>RIGHT(D77:D200,4)</f>
         <v>6683</v>
       </c>
       <c r="B77" s="27" t="s">
@@ -3737,7 +3740,7 @@
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D201,4)</f>
+        <f>RIGHT(D78:D202,4)</f>
         <v>6793</v>
       </c>
       <c r="B78" s="27" t="s">
@@ -3761,7 +3764,7 @@
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="94" t="str">
-        <f>RIGHT(D79:D202,4)</f>
+        <f>RIGHT(D79:D203,4)</f>
         <v>6795</v>
       </c>
       <c r="B79" s="27" t="s">
@@ -3785,7 +3788,7 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D202,4)</f>
+        <f>RIGHT(D80:D203,4)</f>
         <v>6807</v>
       </c>
       <c r="B80" s="27" t="s">
@@ -3809,7 +3812,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D202,4)</f>
+        <f>RIGHT(D81:D203,4)</f>
         <v>6684</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -3839,7 +3842,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94" t="str">
-        <f>RIGHT(D82:D204,4)</f>
+        <f>RIGHT(D82:D205,4)</f>
         <v>6787</v>
       </c>
       <c r="B82" s="27" t="s">
@@ -3863,7 +3866,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D205,4)</f>
+        <f>RIGHT(D83:D206,4)</f>
         <v>6788</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -3887,7 +3890,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="94" t="str">
-        <f>RIGHT(D84:D206,4)</f>
+        <f>RIGHT(D84:D207,4)</f>
         <v>6790</v>
       </c>
       <c r="B84" s="27" t="s">
@@ -3911,7 +3914,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
-        <f>RIGHT(D85:D205,4)</f>
+        <f>RIGHT(D85:D206,4)</f>
         <v>6689</v>
       </c>
       <c r="B85" s="64" t="s">
@@ -3941,7 +3944,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
-        <f>RIGHT(D86:D206,4)</f>
+        <f>RIGHT(D86:D207,4)</f>
         <v>6791</v>
       </c>
       <c r="B86" s="64" t="s">
@@ -3965,7 +3968,7 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D207,4)</f>
+        <f>RIGHT(D87:D208,4)</f>
         <v>5341</v>
       </c>
       <c r="B87" s="64" t="s">
@@ -3995,7 +3998,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
-        <f>RIGHT(D88:D208,4)</f>
+        <f>RIGHT(D88:D209,4)</f>
         <v>6459</v>
       </c>
       <c r="B88" s="64" t="s">
@@ -4021,7 +4024,7 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
-        <f>RIGHT(D89:D209,4)</f>
+        <f>RIGHT(D89:D210,4)</f>
         <v>6586</v>
       </c>
       <c r="B89" s="64" t="s">
@@ -4045,7 +4048,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
-        <f>RIGHT(D90:D207,4)</f>
+        <f>RIGHT(D90:D208,4)</f>
         <v>6228</v>
       </c>
       <c r="B90" s="64" t="s">
@@ -4069,7 +4072,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
-        <f>RIGHT(D91:D207,4)</f>
+        <f>RIGHT(D91:D208,4)</f>
         <v>5544</v>
       </c>
       <c r="B91" s="27" t="s">
@@ -4099,7 +4102,7 @@
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="94" t="str">
-        <f t="shared" ref="A92:A97" si="1">RIGHT(D92:D209,4)</f>
+        <f>RIGHT(D92:D210,4)</f>
         <v>6697</v>
       </c>
       <c r="B92" s="27" t="s">
@@ -4129,7 +4132,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D93:D211,4)</f>
         <v/>
       </c>
       <c r="B93" s="74" t="s">
@@ -4146,7 +4149,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D94:D212,4)</f>
         <v>5706</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -4176,7 +4179,7 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D95:D213,4)</f>
         <v>6454</v>
       </c>
       <c r="B95" s="27" t="s">
@@ -4206,7 +4209,7 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D96:D214,4)</f>
         <v>6222</v>
       </c>
       <c r="B96" s="27" t="s">
@@ -4230,7 +4233,7 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D97:D215,4)</f>
         <v>5931</v>
       </c>
       <c r="B97" s="27" t="s">
@@ -4260,7 +4263,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
-        <f>RIGHT(D98:D216,4)</f>
+        <f>RIGHT(D98:D217,4)</f>
         <v>5708</v>
       </c>
       <c r="B98" s="27" t="s">
@@ -4290,7 +4293,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
-        <f>RIGHT(D99:D217,4)</f>
+        <f>RIGHT(D99:D218,4)</f>
         <v>6834</v>
       </c>
       <c r="B99" s="27" t="s">
@@ -4314,7 +4317,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
-        <f>RIGHT(D100:D218,4)</f>
+        <f>RIGHT(D100:D219,4)</f>
         <v>6448</v>
       </c>
       <c r="B100" s="27" t="s">
@@ -4340,7 +4343,7 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D219,4)</f>
+        <f>RIGHT(D101:D220,4)</f>
         <v>6221</v>
       </c>
       <c r="B101" s="27" t="s">
@@ -4366,7 +4369,7 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="94" t="str">
-        <f>RIGHT(D102:D219,4)</f>
+        <f>RIGHT(D102:D220,4)</f>
         <v>5679</v>
       </c>
       <c r="B102" s="27" t="s">
@@ -4392,7 +4395,7 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D221,4)</f>
+        <f>RIGHT(D103:D222,4)</f>
         <v>4993</v>
       </c>
       <c r="B103" s="27" t="s">
@@ -4422,7 +4425,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
-        <f>RIGHT(D104:D222,4)</f>
+        <f>RIGHT(D104:D223,4)</f>
         <v>3684</v>
       </c>
       <c r="B104" s="27" t="s">
@@ -4448,7 +4451,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="94" t="str">
-        <f>RIGHT(D105:D222,4)</f>
+        <f>RIGHT(D105:D223,4)</f>
         <v>5682</v>
       </c>
       <c r="B105" s="27" t="s">
@@ -4478,7 +4481,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="str">
-        <f>RIGHT(D106:D225,4)</f>
+        <f>RIGHT(D106:D226,4)</f>
         <v>4117</v>
       </c>
       <c r="B106" s="27" t="s">
@@ -4508,7 +4511,7 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
-        <f>RIGHT(D107:D226,4)</f>
+        <f>RIGHT(D107:D227,4)</f>
         <v>5483</v>
       </c>
       <c r="B107" s="27" t="s">
@@ -4538,7 +4541,7 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="94" t="str">
-        <f>RIGHT(D108:D227,4)</f>
+        <f>RIGHT(D108:D228,4)</f>
         <v>6453</v>
       </c>
       <c r="B108" s="27" t="s">
@@ -4568,7 +4571,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="94" t="str">
-        <f>RIGHT(D109:D228,4)</f>
+        <f>RIGHT(D109:D229,4)</f>
         <v/>
       </c>
       <c r="B109" s="74" t="s">
@@ -4585,7 +4588,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="str">
-        <f>RIGHT(D110:D232,4)</f>
+        <f>RIGHT(D110:D233,4)</f>
         <v>6470</v>
       </c>
       <c r="B110" s="29" t="s">
@@ -4609,7 +4612,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="94" t="str">
-        <f>RIGHT(D111:D233,4)</f>
+        <f>RIGHT(D111:D234,4)</f>
         <v>6495</v>
       </c>
       <c r="B111" s="29" t="s">
@@ -4635,7 +4638,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="94" t="str">
-        <f>RIGHT(D112:D233,4)</f>
+        <f>RIGHT(D112:D234,4)</f>
         <v>6865</v>
       </c>
       <c r="B112" s="29" t="s">
@@ -4657,9 +4660,9 @@
       <c r="I112" s="14"/>
       <c r="J112" s="39"/>
     </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="94" t="str">
-        <f>RIGHT(D113:D230,4)</f>
+        <f>RIGHT(D113:D231,4)</f>
         <v>3215</v>
       </c>
       <c r="B113" s="27" t="s">
@@ -4687,9 +4690,9 @@
       </c>
       <c r="J113" s="39"/>
     </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="94" t="str">
-        <f>RIGHT(D114:D233,4)</f>
+        <f>RIGHT(D114:D234,4)</f>
         <v/>
       </c>
       <c r="B114" s="74" t="s">
@@ -4704,9 +4707,9 @@
       <c r="I114" s="74"/>
       <c r="J114" s="75"/>
     </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
-        <f>RIGHT(D115:D236,4)</f>
+        <f>RIGHT(D115:D237,4)</f>
         <v>6206</v>
       </c>
       <c r="B115" s="47" t="s">
@@ -4734,9 +4737,9 @@
       </c>
       <c r="J115" s="39"/>
     </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="94" t="str">
-        <f>RIGHT(D116:D237,4)</f>
+        <f>RIGHT(D116:D238,4)</f>
         <v>4691</v>
       </c>
       <c r="B116" s="47" t="s">
@@ -4753,16 +4756,16 @@
         <v>0.3</v>
       </c>
       <c r="G116" s="23">
-        <f t="shared" ref="G116:G121" si="2">F116*E116</f>
+        <f t="shared" ref="G116:G122" si="0">F116*E116</f>
         <v>0</v>
       </c>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="93"/>
     </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="94" t="str">
-        <f>RIGHT(D117:D238,4)</f>
+        <f>RIGHT(D117:D239,4)</f>
         <v>6200</v>
       </c>
       <c r="B117" s="47" t="s">
@@ -4779,165 +4782,175 @@
         <v>0.3</v>
       </c>
       <c r="G117" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="93"/>
     </row>
-    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="94" t="str">
-        <f>RIGHT(D118:D239,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D118:D240,4)</f>
+        <v>6842</v>
       </c>
       <c r="B118" s="47" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="C118" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="23">
         <v>0.3</v>
       </c>
       <c r="G118" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G118" si="1">F118*E118</f>
         <v>0</v>
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="93"/>
-    </row>
-    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K118" s="82"/>
+    </row>
+    <row r="119" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="94" t="str">
-        <f>RIGHT(D119:D237,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D119:D240,4)</f>
+        <v>6492</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G119" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="93"/>
     </row>
-    <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="94" t="str">
         <f>RIGHT(D120:D238,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G120" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="93"/>
     </row>
-    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="94" t="str">
         <f>RIGHT(D121:D239,4)</f>
-        <v>6921</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C121" s="33" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C121" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001223296921</v>
+        <v>1001053944786</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G121" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
-      <c r="J121" s="39"/>
-    </row>
-    <row r="122" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J121" s="93"/>
+    </row>
+    <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="94" t="str">
-        <f>RIGHT(D122:D237,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B122" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C122" s="35" t="s">
+        <f>RIGHT(D122:D240,4)</f>
+        <v>6921</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001223296919</v>
+        <v>1001223296921</v>
       </c>
       <c r="E122" s="24"/>
-      <c r="F122" s="23"/>
+      <c r="F122" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G122" s="23">
-        <f>E122*0.18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
-      <c r="J122" s="93"/>
-    </row>
-    <row r="123" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J122" s="39"/>
+    </row>
+    <row r="123" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="94" t="str">
         <f>RIGHT(D123:D238,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B123" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23">
+        <f>E123*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="93"/>
+    </row>
+    <row r="124" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="94" t="str">
+        <f>RIGHT(D124:D239,4)</f>
         <v/>
       </c>
-      <c r="B123" s="74" t="s">
+      <c r="B124" s="74" t="s">
         <v>136</v>
-      </c>
-      <c r="C123" s="74"/>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="73"/>
-      <c r="G123" s="74"/>
-      <c r="H123" s="74"/>
-      <c r="I123" s="74"/>
-      <c r="J123" s="75"/>
-    </row>
-    <row r="124" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="94" t="str">
-        <f>RIGHT(D124:D241,4)</f>
-        <v/>
-      </c>
-      <c r="B124" s="74" t="s">
-        <v>137</v>
       </c>
       <c r="C124" s="74"/>
       <c r="D124" s="74"/>
@@ -4948,73 +4961,66 @@
       <c r="I124" s="74"/>
       <c r="J124" s="75"/>
     </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="94" t="str">
         <f>RIGHT(D125:D242,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B125" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D125" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G125" s="23">
-        <f>E125*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H125" s="14">
-        <v>8</v>
-      </c>
-      <c r="I125" s="72">
-        <v>120</v>
-      </c>
-      <c r="J125" s="39"/>
-    </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B125" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="74"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="73"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="74"/>
+      <c r="I125" s="74"/>
+      <c r="J125" s="75"/>
+    </row>
+    <row r="126" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A126" s="94" t="str">
         <f>RIGHT(D126:D243,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E126" s="24"/>
-      <c r="F126" s="23"/>
+      <c r="F126" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G126" s="23">
-        <f>E126*0.45</f>
+        <f>E126*0.5</f>
         <v>0</v>
       </c>
-      <c r="H126" s="14"/>
-      <c r="I126" s="72"/>
+      <c r="H126" s="14">
+        <v>8</v>
+      </c>
+      <c r="I126" s="72">
+        <v>120</v>
+      </c>
       <c r="J126" s="39"/>
     </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="94" t="str">
         <f>RIGHT(D127:D244,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23"/>
@@ -5026,174 +5032,168 @@
       <c r="I127" s="72"/>
       <c r="J127" s="39"/>
     </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="94" t="str">
-        <f t="shared" ref="A128:A139" si="3">RIGHT(D128:D243,4)</f>
+        <f>RIGHT(D128:D245,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B128" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23">
+        <f>E128*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="72"/>
+      <c r="J128" s="39"/>
+    </row>
+    <row r="129" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="94" t="str">
+        <f t="shared" ref="A129:A140" si="2">RIGHT(D129:D244,4)</f>
         <v>6313</v>
       </c>
-      <c r="B128" s="47" t="s">
+      <c r="B129" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C129" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D128" s="28">
+      <c r="D129" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="23">
+      <c r="E129" s="24"/>
+      <c r="F129" s="23">
         <v>0.9</v>
       </c>
-      <c r="G128" s="23">
-        <f>E128*0.9</f>
+      <c r="G129" s="23">
+        <f>E129*0.9</f>
         <v>0</v>
       </c>
-      <c r="H128" s="14">
+      <c r="H129" s="14">
         <v>9</v>
       </c>
-      <c r="I128" s="72">
+      <c r="I129" s="72">
         <v>120</v>
       </c>
-      <c r="J128" s="39"/>
-    </row>
-    <row r="129" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B129" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C129" s="74"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="74"/>
-      <c r="F129" s="73"/>
-      <c r="G129" s="74"/>
-      <c r="H129" s="74"/>
-      <c r="I129" s="74"/>
-      <c r="J129" s="75"/>
+      <c r="J129" s="39"/>
     </row>
     <row r="130" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>4945</v>
-      </c>
-      <c r="B130" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C130" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D130" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G130" s="23">
-        <f>E130*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H130" s="14">
-        <v>8</v>
-      </c>
-      <c r="I130" s="72">
-        <v>120</v>
-      </c>
-      <c r="J130" s="39"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B130" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C130" s="74"/>
+      <c r="D130" s="74"/>
+      <c r="E130" s="74"/>
+      <c r="F130" s="73"/>
+      <c r="G130" s="74"/>
+      <c r="H130" s="74"/>
+      <c r="I130" s="74"/>
+      <c r="J130" s="75"/>
     </row>
     <row r="131" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>4945</v>
+      </c>
+      <c r="B131" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C131" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E131" s="24"/>
+      <c r="F131" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G131" s="23">
+        <f>E131*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="14">
+        <v>8</v>
+      </c>
+      <c r="I131" s="72">
+        <v>120</v>
+      </c>
+      <c r="J131" s="39"/>
+    </row>
+    <row r="132" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="94" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B131" s="74" t="s">
+      <c r="B132" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="74"/>
-      <c r="H131" s="74"/>
-      <c r="I131" s="74"/>
-      <c r="J131" s="75"/>
-    </row>
-    <row r="132" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="94" t="str">
-        <f t="shared" si="3"/>
+      <c r="C132" s="74"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="74"/>
+      <c r="F132" s="73"/>
+      <c r="G132" s="74"/>
+      <c r="H132" s="74"/>
+      <c r="I132" s="74"/>
+      <c r="J132" s="75"/>
+    </row>
+    <row r="133" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="94" t="str">
+        <f t="shared" si="2"/>
         <v>4956</v>
       </c>
-      <c r="B132" s="89" t="s">
+      <c r="B133" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="C132" s="90" t="s">
+      <c r="C133" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D132" s="83">
+      <c r="D133" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E132" s="84"/>
-      <c r="F132" s="85">
+      <c r="E133" s="84"/>
+      <c r="F133" s="85">
         <v>0.42</v>
       </c>
-      <c r="G132" s="85">
-        <f>E132*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H132" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I132" s="91">
-        <v>120</v>
-      </c>
-      <c r="J132" s="86"/>
-      <c r="K132" s="87"/>
-    </row>
-    <row r="133" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>1762</v>
-      </c>
-      <c r="B133" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G133" s="23">
+      <c r="G133" s="85">
         <f>E133*0.42</f>
         <v>0</v>
       </c>
-      <c r="H133" s="14">
+      <c r="H133" s="86">
         <v>4.2</v>
       </c>
-      <c r="I133" s="72">
+      <c r="I133" s="91">
         <v>120</v>
       </c>
-      <c r="J133" s="39"/>
-    </row>
-    <row r="134" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J133" s="86"/>
+      <c r="K133" s="87"/>
+    </row>
+    <row r="134" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A134" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>1764</v>
+        <f t="shared" si="2"/>
+        <v>1762</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C134" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C134" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
@@ -5211,30 +5211,43 @@
       </c>
       <c r="J134" s="39"/>
     </row>
-    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B135" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
-      <c r="J135" s="75"/>
+        <f t="shared" si="2"/>
+        <v>1764</v>
+      </c>
+      <c r="B135" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E135" s="24"/>
+      <c r="F135" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G135" s="23">
+        <f>E135*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H135" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I135" s="72">
+        <v>120</v>
+      </c>
+      <c r="J135" s="39"/>
     </row>
     <row r="136" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B136" s="74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C136" s="74"/>
       <c r="D136" s="74"/>
@@ -5247,131 +5260,138 @@
     </row>
     <row r="137" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B137" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" s="74"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="74"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="74"/>
+      <c r="J137" s="75"/>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="94" t="str">
+        <f t="shared" si="2"/>
         <v>6004</v>
       </c>
-      <c r="B137" s="47" t="s">
+      <c r="B138" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="C137" s="36" t="s">
+      <c r="C138" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D137" s="68" t="s">
+      <c r="D138" s="68" t="s">
         <v>151</v>
-      </c>
-      <c r="E137" s="24"/>
-      <c r="F137" s="23">
-        <v>1</v>
-      </c>
-      <c r="G137" s="23">
-        <f>E137*1</f>
-        <v>0</v>
-      </c>
-      <c r="H137" s="14">
-        <v>8</v>
-      </c>
-      <c r="I137" s="72">
-        <v>120</v>
-      </c>
-      <c r="J137" s="39"/>
-    </row>
-    <row r="138" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>5417</v>
-      </c>
-      <c r="B138" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C138" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D138" s="68" t="s">
-        <v>153</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138" s="23">
         <f>E138*1</f>
         <v>0</v>
       </c>
       <c r="H138" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I138" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J138" s="39"/>
     </row>
-    <row r="139" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A139" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>6019</v>
+        <f t="shared" si="2"/>
+        <v>5417</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="C139" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="69" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="68" t="s">
+        <v>153</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139" s="23">
         <f>E139*1</f>
         <v>0</v>
       </c>
       <c r="H139" s="14">
+        <v>6</v>
+      </c>
+      <c r="I139" s="72">
+        <v>90</v>
+      </c>
+      <c r="J139" s="39"/>
+    </row>
+    <row r="140" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v>6019</v>
+      </c>
+      <c r="B140" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="E140" s="24"/>
+      <c r="F140" s="23">
+        <v>1</v>
+      </c>
+      <c r="G140" s="23">
+        <f>E140*1</f>
+        <v>0</v>
+      </c>
+      <c r="H140" s="14">
         <v>12</v>
       </c>
-      <c r="I139" s="72">
+      <c r="I140" s="72">
         <v>120</v>
       </c>
-      <c r="J139" s="39"/>
-    </row>
-    <row r="140" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="77"/>
-      <c r="B140" s="77" t="s">
+      <c r="J140" s="39"/>
+    </row>
+    <row r="141" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="77"/>
+      <c r="B141" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="C140" s="16"/>
-      <c r="D140" s="48"/>
-      <c r="E140" s="17">
-        <f>SUM(E5:E139)</f>
+      <c r="C141" s="16"/>
+      <c r="D141" s="48"/>
+      <c r="E141" s="17">
+        <f>SUM(E5:E140)</f>
         <v>0</v>
       </c>
-      <c r="F140" s="17">
-        <f>SUM(F10:F139)</f>
-        <v>39.234166666666674</v>
-      </c>
-      <c r="G140" s="17">
-        <f>SUM(G11:G139)</f>
+      <c r="F141" s="17">
+        <f>SUM(F10:F140)</f>
+        <v>39.534166666666671</v>
+      </c>
+      <c r="G141" s="17">
+        <f>SUM(G11:G140)</f>
         <v>0</v>
       </c>
-      <c r="H140" s="17">
-        <f>SUM(H10:H136)</f>
+      <c r="H141" s="17">
+        <f>SUM(H10:H137)</f>
         <v>154.69999999999993</v>
       </c>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17"/>
-    </row>
-    <row r="141" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="53"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="52"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="21"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B142" s="53"/>
       <c r="C142" s="18"/>
       <c r="D142" s="52"/>
@@ -20601,17 +20621,27 @@
       <c r="I1664" s="20"/>
       <c r="J1664" s="21"/>
     </row>
+    <row r="1665" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1665" s="53"/>
+      <c r="C1665" s="18"/>
+      <c r="D1665" s="52"/>
+      <c r="F1665" s="19"/>
+      <c r="G1665" s="19"/>
+      <c r="H1665" s="20"/>
+      <c r="I1665" s="20"/>
+      <c r="J1665" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J141" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B133" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B134" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D137:D139" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D138:D140" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
